--- a/orders.xlsx
+++ b/orders.xlsx
@@ -482,7 +482,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +492,7 @@
   <cols>
     <col width="14" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="3" max="3"/>
     <col width="20" customWidth="1" min="4" max="4"/>
     <col width="19" customWidth="1" min="5" max="5"/>
     <col width="10" customWidth="1" min="6" max="6"/>
@@ -1752,6 +1752,92 @@
         </is>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" s="3" t="n">
+        <v>154</v>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>a_najary</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>rftghfgh fh f hfgh</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="inlineStr">
+        <is>
+          <t>sdfd f fd hfgh</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>حلیم با گوشت قرمز</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>pickup</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr">
+        <is>
+          <t>1402/02/01</t>
+        </is>
+      </c>
+      <c r="I30" s="6" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="3" t="n">
+        <v>155</v>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>a_najary</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>Ali njk</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>asdlhas dasd</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>حلیم با گوشت قرمز</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>delivery</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="I31" s="6" t="inlineStr">
+        <is>
+          <t>pending</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
